--- a/7_eval_compareFastResponse/output/conversation_17489_processed.xlsx
+++ b/7_eval_compareFastResponse/output/conversation_17489_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,42 +453,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
+          <t>Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
+          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. "}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -501,486 +505,104 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired. I'm hungry. I'm not sober. I'm tired. I'm hungry."}]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cậu nói lại cùng tớ nha.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired. I'm hungry. I'm not sober. I'm tired. I'm hungry."}, {"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "Hello? Hello? Hello?"}]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cậu nói lại cùng tớ nha.</t>
+          <t xml:space="preserve">Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired. I'm hungry. I'm not sober. I'm tired. I'm hungry."}, {"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "Hello? Hello? Hello?"}, {"role": "assistant", "content": "Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}, {"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "Yes"}]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! </t>
+          <t>Nào, nói lại với tớ!</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! "}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired. I'm hungry. I'm not sober. I'm tired. I'm hungry."}, {"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "Hello? Hello? Hello?"}, {"role": "assistant", "content": "Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}, {"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "Yes"}, {"role": "assistant", "content": "Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha!"}, {"role": "assistant", "content": "Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào!"}, {"role": "assistant", "content": "Nào, lặp lại cùng tớ nhé!"}, {"role": "user", "content": "Good morning. Good morning. Hello. How are you?"}]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired. I'm hungry. I'm not sober. I'm tired. I'm hungry."}, {"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "Hello? Hello? Hello?"}, {"role": "assistant", "content": "Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}, {"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "Yes"}, {"role": "assistant", "content": "Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha!"}, {"role": "assistant", "content": "Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào!"}, {"role": "assistant", "content": "Nào, lặp lại cùng tớ nhé!"}, {"role": "user", "content": "Good morning. Good morning. Hello. How are you?"}, {"role": "assistant", "content": "Tuyệt vời! Chúng ta cùng tiếp tục nào! Đây là điều mình thường nói vào mỗi sáng. Cậu nói theo nhé!"}, {"role": "assistant", "content": "Nói lại với tớ nào!"}, {"role": "user", "content": "Good morning. Good morning."}]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nào, nói lại với tớ!</t>
+          <t>Cậu nhớ nhịp rồi đúng không? Cùng nói nào!</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired. I'm hungry. I'm not sober. I'm tired. I'm hungry."}, {"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "Hello? Hello? Hello?"}, {"role": "assistant", "content": "Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}, {"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "Yes"}, {"role": "assistant", "content": "Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha!"}, {"role": "assistant", "content": "Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào!"}, {"role": "assistant", "content": "Nào, lặp lại cùng tớ nhé!"}, {"role": "user", "content": "Good morning. Good morning. Hello. How are you?"}, {"role": "assistant", "content": "Tuyệt vời! Chúng ta cùng tiếp tục nào! Đây là điều mình thường nói vào mỗi sáng. Cậu nói theo nhé!"}, {"role": "assistant", "content": "Nói lại với tớ nào!"}, {"role": "user", "content": "Good morning. Good morning."}, {"role": "assistant", "content": "Đúng rồi, mình cùng nói tiếp nhé! Buổi sáng mình làm gì nào? Câu này có hành động nữa đó!"}, {"role": "assistant", "content": "Vừa nói vừa làm thử động tác nha"}, {"role": "user", "content": "In the morning, I clap my hands."}]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!</t>
+          <t>Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired. I'm hungry. I'm not sober. I'm tired. I'm hungry."}, {"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "Hello? Hello? Hello?"}, {"role": "assistant", "content": "Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}, {"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "Yes"}, {"role": "assistant", "content": "Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha!"}, {"role": "assistant", "content": "Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào!"}, {"role": "assistant", "content": "Nào, lặp lại cùng tớ nhé!"}, {"role": "user", "content": "Good morning. Good morning. Hello. How are you?"}, {"role": "assistant", "content": "Tuyệt vời! Chúng ta cùng tiếp tục nào! Đây là điều mình thường nói vào mỗi sáng. Cậu nói theo nhé!"}, {"role": "assistant", "content": "Nói lại với tớ nào!"}, {"role": "user", "content": "Good morning. Good morning."}, {"role": "assistant", "content": "Đúng rồi, mình cùng nói tiếp nhé! Buổi sáng mình làm gì nào? Câu này có hành động nữa đó!"}, {"role": "assistant", "content": "Vừa nói vừa làm thử động tác nha"}, {"role": "user", "content": "In the morning, I clap my hands."}, {"role": "assistant", "content": "Đúng rồi! Cùng nói tiếp nha! Khi mình vui, hãy hét thật to"}, {"role": "assistant", "content": "Cùng nói lớn và tươi thật tươi nào!"}, {"role": "user", "content": "So, we're ready."}]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Giờ thì cậu nhại theo tớ nha!</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "you"}, {"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello? Hello? Hello? Hello? Hello?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired. I'm hungry. I'm not sober. I'm tired. I'm hungry."}, {"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "Hello? Hello? Hello?"}, {"role": "assistant", "content": "Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}, {"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "Yes"}, {"role": "assistant", "content": "Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha!"}, {"role": "assistant", "content": "Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào!"}, {"role": "assistant", "content": "Nào, lặp lại cùng tớ nhé!"}, {"role": "user", "content": "Good morning. Good morning. Hello. How are you?"}, {"role": "assistant", "content": "Tuyệt vời! Chúng ta cùng tiếp tục nào! Đây là điều mình thường nói vào mỗi sáng. Cậu nói theo nhé!"}, {"role": "assistant", "content": "Nói lại với tớ nào!"}, {"role": "user", "content": "Good morning. Good morning."}, {"role": "assistant", "content": "Đúng rồi, mình cùng nói tiếp nhé! Buổi sáng mình làm gì nào? Câu này có hành động nữa đó!"}, {"role": "assistant", "content": "Vừa nói vừa làm thử động tác nha"}, {"role": "user", "content": "In the morning, I clap my hands."}, {"role": "assistant", "content": "Đúng rồi! Cùng nói tiếp nha! Khi mình vui, hãy hét thật to"}, {"role": "assistant", "content": "Cùng nói lớn và tươi thật tươi nào!"}, {"role": "user", "content": "So, we're ready."}, {"role": "assistant", "content": "Pika vỗ tay bôm bốp vì cậu kiên trì quá nè! Cùng nhau hét thật to nào! Lặp lại câu chào lần cuối để nhớ thật kỹ nha!"}, {"role": "assistant", "content": "Cùng hát lại với Pika nào!"}, {"role": "user", "content": "Good morning. Good morning. Hello. How are you?"}]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cậu nhớ nhịp rồi đúng không? Cùng nói nào!</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Giờ thì cậu nhại theo tớ nha!</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": " Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired. I'm hungry. I'm not sober. I'm tired. I'm hungry."}]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
           <t xml:space="preserve">Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha! </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha! "}]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cùng nói lại với tớ nào!</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "Hello? Hello? Hello?"}]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha! </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha! "}]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "Yes"}]</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha! </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha! "}]</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào! </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào! "}]</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Nào, lặp lại cùng tớ nhé!</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Nào, lặp lại cùng tớ nhé!"}, {"role": "user", "content": "Good morning. Good morning. Hello. How are you?"}]</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tuyệt vời! Chúng ta cùng tiếp tục nào! Đây là điều mình thường nói vào mỗi sáng. Cậu nói theo nhé! </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Tuyệt vời! Chúng ta cùng tiếp tục nào! Đây là điều mình thường nói vào mỗi sáng. Cậu nói theo nhé! "}]</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Nói lại với tớ nào!</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Nói lại với tớ nào!"}, {"role": "user", "content": "Good morning. Good morning."}]</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Đúng rồi, mình cùng nói tiếp nhé! Buổi sáng mình làm gì nào? Câu này có hành động nữa đó! </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Đúng rồi, mình cùng nói tiếp nhé! Buổi sáng mình làm gì nào? Câu này có hành động nữa đó! "}]</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Vừa nói vừa làm thử động tác nha</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Vừa nói vừa làm thử động tác nha"}, {"role": "user", "content": "In the morning, I clap my hands."}]</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Đúng rồi! Cùng nói tiếp nha! Khi mình vui, hãy hét thật to</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Đúng rồi! Cùng nói tiếp nha! Khi mình vui, hãy hét thật to"}]</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Cùng nói lớn và tươi thật tươi nào!</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cùng nói lớn và tươi thật tươi nào!"}, {"role": "user", "content": "So, we're ready."}]</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pika vỗ tay bôm bốp vì cậu kiên trì quá nè! Cùng nhau hét thật to nào! Lặp lại câu chào lần cuối để nhớ thật kỹ nha! </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Pika vỗ tay bôm bốp vì cậu kiên trì quá nè! Cùng nhau hét thật to nào! Lặp lại câu chào lần cuối để nhớ thật kỹ nha! "}]</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cùng hát lại với Pika nào! </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": " Cùng hát lại với Pika nào! "}, {"role": "user", "content": "Good morning. Good morning. Hello. How are you?"}]</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giỏi lắm! Bây giờ mình cùng hát lại toàn bài, vừa nói vừa làm động tác luôn nha, để khởi động một ngày thật tuyệt vời! </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Giỏi lắm! Bây giờ mình cùng hát lại toàn bài, vừa nói vừa làm động tác luôn nha, để khởi động một ngày thật tuyệt vời! "}]</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Woaaa, buổi sáng hôm nay thật tuyệt vì có cậu cùng luyện tập với tớ! Nhớ nha, chỉ cần chào buổi sáng đúng nhịp, cả ngày sẽ vui như đi nhảy luôn đó! </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Woaaa, buổi sáng hôm nay thật tuyệt vì có cậu cùng luyện tập với tớ! Nhớ nha, chỉ cần chào buổi sáng đúng nhịp, cả ngày sẽ vui như đi nhảy luôn đó! "}]</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bài hát số 3 nha, bài hát rất dễ thương, giúp mình biết cách hỏi tên và chào bạn mới! Trước tiên, hãy nghe thử toàn bộ bài hát một lần để làm quen với nhịp và giai điệu nhé! </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Bài hát số 3 nha, bài hát rất dễ thương, giúp mình biết cách hỏi tên và chào bạn mới! Trước tiên, hãy nghe thử toàn bộ bài hát một lần để làm quen với nhịp và giai điệu nhé! "}]</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Nào, đầu tiên là đoạn chào hỏi</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Nào, đầu tiên là đoạn chào hỏi"}]</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Cậu lặp lại với tớ nhé!</t>
         </is>
       </c>
     </row>
